--- a/References/Research Dataset/Source.xlsx
+++ b/References/Research Dataset/Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brain Station\Project\Research Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nattawaree\Documents\GitHub\Capstone\References\Research Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F992A-2775-49DE-A3AE-D41B06E4B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189D16F-E139-4E57-891C-223A8906F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://catalog.data.gov/dataset/electric-vehicle-population-data</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Go to web filter -&gt; export to excel</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/asthma-prevalence?tab=table&amp;time=earliest..2019</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +505,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E8A6CB06-5C3F-42F8-BBC4-B36D8DFD8609}"/>
